--- a/Raptor/src/test/resources/Data/inputData.xlsx
+++ b/Raptor/src/test/resources/Data/inputData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bala9\eclipse-workspace\KCDA53\Daimi\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bala9\git\repository\Raptor\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAAF474-0661-4578-A664-BA8BD29FD9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72252784-4DF9-4B1C-91B4-1B968D77563C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" r:id="rId1"/>
     <sheet name="Accounts" sheetId="2" r:id="rId2"/>
     <sheet name="Contacts" sheetId="3" r:id="rId3"/>
     <sheet name="Potentials" sheetId="4" r:id="rId4"/>
+    <sheet name="product" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Salutation</t>
   </si>
@@ -139,6 +140,12 @@
   </si>
   <si>
     <t>12/07/1995</t>
+  </si>
+  <si>
+    <t>search box</t>
+  </si>
+  <si>
+    <t>sr</t>
   </si>
 </sst>
 </file>
@@ -657,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A7F518-8D97-4B39-96D6-C0B8EDCB299F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -701,4 +708,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4368FC16-8F46-4C48-83C9-B76894B0D089}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>